--- a/elasticsearch/users_testdata.xlsx
+++ b/elasticsearch/users_testdata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>BorisJohnson</t>
   </si>
@@ -39,16 +39,10 @@
     <t>user_screen_name</t>
   </si>
   <si>
-    <t>n_rumors_produced</t>
-  </si>
-  <si>
     <t>n_rumors_propagated</t>
   </si>
   <si>
     <t>n_rumors_stifled</t>
-  </si>
-  <si>
-    <t>n_rumors</t>
   </si>
   <si>
     <t>user_id</t>
@@ -401,50 +395,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3131144855</v>
       </c>
@@ -453,30 +439,22 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">0.5+0.5*RAND()</f>
-        <v>0.59126833841082782</v>
+        <v>0.5483427546503713</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">0.5+0.5*RAND()</f>
-        <v>0.93828318135934341</v>
+        <v>0.61385827091322875</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">RANDBETWEEN(50, 100)</f>
-        <v>92</v>
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">RANDBETWEEN(0,40)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <f ca="1">RANDBETWEEN(0,40)</f>
-        <v>39</v>
-      </c>
-      <c r="H2" s="2">
-        <f ca="1">E2-F2-G2</f>
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>103065157</v>
       </c>
@@ -484,31 +462,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C7" ca="1" si="0">0.5+0.5*RAND()</f>
-        <v>0.94478594348385581</v>
+        <f t="shared" ref="C3:D7" ca="1" si="0">0.5+0.5*RAND()</f>
+        <v>0.91063603567535867</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" ca="1" si="1">0.5+0.5*RAND()</f>
-        <v>0.99393782486568416</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95530783934282759</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" ca="1" si="2">RANDBETWEEN(50, 100)</f>
-        <v>71</v>
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:G7" ca="1" si="3">RANDBETWEEN(0,40)</f>
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H7" ca="1" si="4">E3-F3-G3</f>
-        <v>39</v>
+        <f t="shared" ref="F3:F7" ca="1" si="1">RANDBETWEEN(0,40)</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1225696320</v>
       </c>
@@ -517,30 +487,22 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87337266898463939</v>
+        <v>0.80396678658641274</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8932440398999989</v>
+      </c>
+      <c r="E4" s="2">
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94045806319908365</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>7.4845351004851802E+17</v>
       </c>
@@ -549,30 +511,22 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56344812312851178</v>
+        <v>0.89333730922427668</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95881818472839042</v>
+      </c>
+      <c r="E5" s="2">
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69865791474103078</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>19017675</v>
       </c>
@@ -581,30 +535,22 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65365410105258581</v>
+        <v>0.92112206993358692</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57988171639406161</v>
+      </c>
+      <c r="E6" s="2">
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>27</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6475188313994853</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3695647695</v>
       </c>
@@ -613,32 +559,23 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74944905435067088</v>
+        <v>0.91493809388737857</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.901974662172629</v>
+      </c>
+      <c r="E7" s="2">
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92128044403718001</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
